--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1120327.10609838</v>
+        <v>1170219.882749379</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111175</v>
+        <v>713587.7684111177</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7435256.12957489</v>
+        <v>7435256.129574889</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
@@ -706,22 +706,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>198.7050131246913</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>69.3421217705996</v>
       </c>
       <c r="Y3" t="n">
-        <v>90.99360837528201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>25.17354161800005</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>14.47942859368512</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9.245357950761489</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>176.2637201985544</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>50.29171516770226</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>9.894394903258235</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>182.7849285666188</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
-        <v>238.6612116432393</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>319.3912225700337</v>
       </c>
     </row>
     <row r="12">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>42.99198156610999</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1466,7 +1466,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>152.1083833860768</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>38.97640474817491</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>117.2769216305951</v>
+        <v>91.43994010879776</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>87.30283807112643</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>81.12752273267785</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>14.66929392497715</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>23.25568505023282</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
         <v>251.2985142370684</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>33.9136841475406</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>64.39112357224145</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>95.77340450914622</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>73.36175976093791</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>173.7001536437862</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
@@ -2137,19 +2137,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>253.6573013492384</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.50693131933623</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2177,7 +2177,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
         <v>78.54202280713804</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>68.77393202857635</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>73.36175976093783</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>38.97640474817491</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>58.24194041439786</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>25.58037822558966</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>49.30513159693602</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2450,22 +2450,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>180.4616923463815</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="V25" t="n">
-        <v>38.9764047481748</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2566,11 +2566,11 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>207.8791778292109</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>257.9648699330302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2690,13 +2690,13 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>151.3436645457428</v>
+        <v>141.2209508291585</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>11.33877089098627</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,17 +2797,17 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>115.2144734578675</v>
+      </c>
+      <c r="G29" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>156.487710090236</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2873,22 +2873,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>138.3958633772893</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>108.7668093276097</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,10 +2936,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>38.97640474817486</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>73.36175976093786</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>55.15641005250293</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G32" t="n">
-        <v>400.6920118803606</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>81.12752273267785</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -3167,7 +3167,7 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>148.1008971906872</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>31.5634823801159</v>
+        <v>39.19479062707035</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>53.96864153531342</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>34.46500819446465</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>50.71568457260035</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>146.1515546477385</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
@@ -3410,10 +3410,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>38.97640474817485</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>38.97640474817486</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>30.96091120189156</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>313.6929426033511</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>96.19094126559263</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>72.16211836403343</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>99.78974769572869</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>33.64439241526546</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>151.4745428196982</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>10.65380626982413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,16 +3827,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>23.3858135609893</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>35.54483890212024</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>39.19479062707036</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>38.97640474817491</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>194.5720762162736</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>36.53781129759455</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0.5439382344022646</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>182.4698491793191</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509.8046290289238</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C2" t="n">
-        <v>509.8046290289238</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D2" t="n">
         <v>509.8046290289238</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>509.8046290289238</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X2" t="n">
-        <v>509.8046290289238</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.8046290289238</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>703.9290827579601</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C3" t="n">
-        <v>529.4760534768332</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D3" t="n">
-        <v>529.4760534768332</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E3" t="n">
-        <v>370.2385984713777</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4412,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y3" t="n">
-        <v>872.1444197780281</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E5" t="n">
-        <v>290.2572196227447</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>29.37402116780802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>29.37402116780802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>29.37402116780802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W6" t="n">
-        <v>619.4388494194218</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X6" t="n">
-        <v>411.587349213889</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.5536560184564</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4846,10 +4846,10 @@
         <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.5536560184564</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>259.0600686093459</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="C9" t="n">
-        <v>259.0600686093459</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>259.0600686093459</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>259.0600686093459</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>259.0600686093459</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>120.3292431919614</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4889,13 +4889,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W9" t="n">
-        <v>259.0600686093459</v>
+        <v>606.0085699849225</v>
       </c>
       <c r="X9" t="n">
-        <v>259.0600686093459</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="Y9" t="n">
-        <v>259.0600686093459</v>
+        <v>398.1570697793896</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1069.159481024806</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="C11" t="n">
-        <v>1069.159481024806</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="D11" t="n">
-        <v>1069.159481024806</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E11" t="n">
-        <v>683.3712284265619</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F11" t="n">
-        <v>683.3712284265619</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G11" t="n">
-        <v>273.5312567125191</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H11" t="n">
         <v>32.45932575975218</v>
@@ -5041,7 +5041,7 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K11" t="n">
         <v>247.3580469011318</v>
@@ -5065,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T11" t="n">
-        <v>1400.222368368377</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U11" t="n">
-        <v>1400.222368368377</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V11" t="n">
-        <v>1069.159481024806</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W11" t="n">
-        <v>1069.159481024806</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X11" t="n">
-        <v>1069.159481024806</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="Y11" t="n">
-        <v>1069.159481024806</v>
+        <v>1186.35324867879</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>879.3665274943975</v>
+        <v>681.4882208202274</v>
       </c>
       <c r="C12" t="n">
-        <v>704.9134982132705</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="D12" t="n">
-        <v>555.9790885520192</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="E12" t="n">
-        <v>396.7416335465637</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F12" t="n">
-        <v>250.2070755734487</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G12" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
         <v>111.7947023326189</v>
@@ -5123,19 +5123,19 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>91.88297124942886</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>389.614726231092</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313474</v>
+        <v>789.032862835355</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082806</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O12" t="n">
-        <v>1271.486777082839</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P12" t="n">
         <v>1513.730526286846</v>
@@ -5147,25 +5147,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T12" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.464052945775</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V12" t="n">
-        <v>1455.464052945775</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="W12" t="n">
-        <v>1201.226696217573</v>
+        <v>1140.526263796886</v>
       </c>
       <c r="X12" t="n">
-        <v>1201.226696217573</v>
+        <v>932.674763591353</v>
       </c>
       <c r="Y12" t="n">
-        <v>1047.581864514465</v>
+        <v>724.9144648263991</v>
       </c>
     </row>
     <row r="13">
@@ -5190,10 +5190,10 @@
         <v>71.82943156598947</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="I13" t="n">
         <v>32.45932575975218</v>
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>369.2677254726013</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C14" t="n">
-        <v>369.2677254726013</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D14" t="n">
-        <v>369.2677254726013</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E14" t="n">
-        <v>369.2677254726013</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F14" t="n">
-        <v>369.2677254726013</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G14" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K14" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S14" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1306.936151154032</v>
+        <v>1219.038469513728</v>
       </c>
       <c r="U14" t="n">
-        <v>1053.099268086286</v>
+        <v>1219.038469513728</v>
       </c>
       <c r="V14" t="n">
-        <v>722.0363807427154</v>
+        <v>1219.038469513728</v>
       </c>
       <c r="W14" t="n">
-        <v>369.2677254726013</v>
+        <v>1219.038469513728</v>
       </c>
       <c r="X14" t="n">
-        <v>369.2677254726013</v>
+        <v>1219.038469513728</v>
       </c>
       <c r="Y14" t="n">
-        <v>369.2677254726013</v>
+        <v>828.8991375379167</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>120.6440106800819</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C15" t="n">
-        <v>120.6440106800819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D15" t="n">
-        <v>120.6440106800819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E15" t="n">
-        <v>120.6440106800819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F15" t="n">
-        <v>120.6440106800819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G15" t="n">
-        <v>120.6440106800819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9655055809358</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>534.697260562599</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M15" t="n">
-        <v>934.1153971668621</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N15" t="n">
-        <v>1299.952780813051</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O15" t="n">
-        <v>1622.966287987609</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
         <v>1622.966287987609</v>
@@ -5384,25 +5384,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T15" t="n">
-        <v>1422.063279093103</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U15" t="n">
-        <v>1193.860611630581</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V15" t="n">
-        <v>958.7085033988383</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W15" t="n">
-        <v>704.4711466706367</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X15" t="n">
-        <v>496.6196464651039</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y15" t="n">
-        <v>288.85934770015</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.1667418687506</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C16" t="n">
-        <v>194.1667418687506</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D16" t="n">
-        <v>194.1667418687506</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E16" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5460,28 +5460,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>194.1667418687506</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="X16" t="n">
-        <v>194.1667418687506</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.1667418687506</v>
+        <v>214.1077905899919</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1171.560805086887</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="C17" t="n">
-        <v>802.5982881464752</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="D17" t="n">
-        <v>802.5982881464752</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E17" t="n">
-        <v>802.5982881464752</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F17" t="n">
-        <v>802.5982881464752</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G17" t="n">
-        <v>392.7583164324324</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H17" t="n">
-        <v>55.94991671958331</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K17" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5539,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1425.397688154633</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1171.560805086887</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V17" t="n">
-        <v>1171.560805086887</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="W17" t="n">
-        <v>1171.560805086887</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="X17" t="n">
-        <v>1171.560805086887</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="Y17" t="n">
-        <v>1171.560805086887</v>
+        <v>800.5649960805454</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>382.247451995276</v>
+        <v>479.0435636672887</v>
       </c>
       <c r="C18" t="n">
-        <v>207.794422714149</v>
+        <v>479.0435636672887</v>
       </c>
       <c r="D18" t="n">
-        <v>207.794422714149</v>
+        <v>330.1091540060374</v>
       </c>
       <c r="E18" t="n">
-        <v>142.7528837522889</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F18" t="n">
-        <v>142.7528837522889</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G18" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H18" t="n">
         <v>32.45932575975218</v>
@@ -5603,13 +5603,13 @@
         <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>656.0248753321102</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O18" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P18" t="n">
         <v>1622.966287987609</v>
@@ -5621,25 +5621,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1455.464052945775</v>
+        <v>1526.225475352108</v>
       </c>
       <c r="T18" t="n">
-        <v>1455.464052945775</v>
+        <v>1526.225475352108</v>
       </c>
       <c r="U18" t="n">
-        <v>1455.464052945775</v>
+        <v>1298.022807889586</v>
       </c>
       <c r="V18" t="n">
-        <v>1220.311944714032</v>
+        <v>1062.870699657843</v>
       </c>
       <c r="W18" t="n">
-        <v>966.0745879858307</v>
+        <v>1062.870699657843</v>
       </c>
       <c r="X18" t="n">
-        <v>758.2230877802979</v>
+        <v>855.0191994523107</v>
       </c>
       <c r="Y18" t="n">
-        <v>550.462789015344</v>
+        <v>647.2589006873568</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
         <v>32.45932575975218</v>
@@ -5706,19 +5706,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V19" t="n">
-        <v>106.5621133970632</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>617.753998124084</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C20" t="n">
-        <v>617.753998124084</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D20" t="n">
-        <v>617.753998124084</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E20" t="n">
         <v>442.2992974737949</v>
@@ -5752,16 +5752,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S20" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T20" t="n">
-        <v>1202.653768535401</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U20" t="n">
-        <v>948.8168854676546</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V20" t="n">
-        <v>617.753998124084</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W20" t="n">
-        <v>617.753998124084</v>
+        <v>832.4386294496067</v>
       </c>
       <c r="X20" t="n">
-        <v>617.753998124084</v>
+        <v>832.4386294496067</v>
       </c>
       <c r="Y20" t="n">
-        <v>617.753998124084</v>
+        <v>442.2992974737949</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>396.7416335465637</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C21" t="n">
-        <v>396.7416335465637</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D21" t="n">
-        <v>396.7416335465637</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E21" t="n">
-        <v>396.7416335465637</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F21" t="n">
-        <v>250.2070755734487</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G21" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H21" t="n">
         <v>111.7947023326189</v>
@@ -5831,25 +5831,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L21" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M21" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N21" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O21" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
@@ -5867,16 +5867,16 @@
         <v>1313.366060425819</v>
       </c>
       <c r="V21" t="n">
-        <v>1078.213952194076</v>
+        <v>1243.897442215136</v>
       </c>
       <c r="W21" t="n">
-        <v>823.9765954658749</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="X21" t="n">
-        <v>616.1250952603421</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="Y21" t="n">
-        <v>408.3647964953881</v>
+        <v>989.6600854869342</v>
       </c>
     </row>
     <row r="22">
@@ -5919,34 +5919,34 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N22" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V22" t="n">
-        <v>321.8764957967128</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W22" t="n">
         <v>32.45932575975218</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1000.917844222863</v>
+        <v>617.753998124084</v>
       </c>
       <c r="C23" t="n">
-        <v>631.9553272824514</v>
+        <v>617.753998124084</v>
       </c>
       <c r="D23" t="n">
-        <v>631.9553272824514</v>
+        <v>617.753998124084</v>
       </c>
       <c r="E23" t="n">
-        <v>631.9553272824514</v>
+        <v>617.753998124084</v>
       </c>
       <c r="F23" t="n">
-        <v>631.9553272824514</v>
+        <v>617.753998124084</v>
       </c>
       <c r="G23" t="n">
-        <v>222.1153555684087</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H23" t="n">
         <v>222.1153555684087</v>
@@ -5989,16 +5989,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K23" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6016,25 +6016,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T23" t="n">
-        <v>1400.222368368377</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U23" t="n">
-        <v>1400.222368368377</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="V23" t="n">
-        <v>1374.383602483943</v>
+        <v>617.753998124084</v>
       </c>
       <c r="W23" t="n">
-        <v>1374.383602483943</v>
+        <v>617.753998124084</v>
       </c>
       <c r="X23" t="n">
-        <v>1000.917844222863</v>
+        <v>617.753998124084</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000.917844222863</v>
+        <v>617.753998124084</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>536.9689116288023</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C24" t="n">
-        <v>536.9689116288023</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D24" t="n">
-        <v>388.034501967551</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E24" t="n">
-        <v>228.7970469620955</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
-        <v>82.26248898898049</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
         <v>32.45932575975218</v>
@@ -6068,16 +6068,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K24" t="n">
-        <v>236.9655055809357</v>
+        <v>91.88297124942886</v>
       </c>
       <c r="L24" t="n">
-        <v>534.6972605625989</v>
+        <v>389.614726231092</v>
       </c>
       <c r="M24" t="n">
-        <v>934.1153971668618</v>
+        <v>789.032862835355</v>
       </c>
       <c r="N24" t="n">
         <v>1190.717019112288</v>
@@ -6098,22 +6098,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1254.561044051268</v>
+        <v>1273.179515222157</v>
       </c>
       <c r="U24" t="n">
-        <v>1026.358376588747</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="V24" t="n">
-        <v>791.2062683570039</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W24" t="n">
-        <v>536.9689116288023</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X24" t="n">
-        <v>536.9689116288023</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y24" t="n">
-        <v>536.9689116288023</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="25">
@@ -6150,7 +6150,7 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191283</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6159,7 +6159,7 @@
         <v>187.2357570984439</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285708</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O25" t="n">
         <v>332.2934283710736</v>
@@ -6180,7 +6180,7 @@
         <v>361.24660160295</v>
       </c>
       <c r="U25" t="n">
-        <v>361.24660160295</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V25" t="n">
         <v>321.8764957967128</v>
@@ -6214,7 +6214,7 @@
         <v>442.2992974737949</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G26" t="n">
         <v>32.45932575975218</v>
@@ -6226,10 +6226,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
         <v>519.4894913528326</v>
@@ -6250,25 +6250,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1088.658125761969</v>
+        <v>1412.987320483356</v>
       </c>
       <c r="U26" t="n">
-        <v>1088.658125761969</v>
+        <v>1159.15043741561</v>
       </c>
       <c r="V26" t="n">
-        <v>1088.658125761969</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="W26" t="n">
-        <v>1088.658125761969</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="X26" t="n">
-        <v>1088.658125761969</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="Y26" t="n">
         <v>828.0875500720392</v>
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>450.9247484189957</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C27" t="n">
-        <v>450.9247484189957</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D27" t="n">
-        <v>301.9903387577444</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E27" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F27" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G27" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H27" t="n">
         <v>32.45932575975218</v>
@@ -6308,19 +6308,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L27" t="n">
-        <v>505.948365158507</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M27" t="n">
-        <v>905.36650176277</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P27" t="n">
         <v>1622.966287987609</v>
@@ -6338,19 +6338,19 @@
         <v>1254.561044051268</v>
       </c>
       <c r="U27" t="n">
-        <v>1101.688655621225</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V27" t="n">
-        <v>866.5365473894824</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W27" t="n">
-        <v>866.5365473894824</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X27" t="n">
-        <v>658.6850471839496</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y27" t="n">
-        <v>450.9247484189957</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>213.3335080205569</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>213.3335080205569</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>43.91262969004134</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
         <v>32.45932575975218</v>
@@ -6417,19 +6417,19 @@
         <v>361.24660160295</v>
       </c>
       <c r="U28" t="n">
-        <v>361.24660160295</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V28" t="n">
-        <v>361.24660160295</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W28" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X28" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y28" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>800.5649960805454</v>
+        <v>558.6775534918429</v>
       </c>
       <c r="C29" t="n">
-        <v>800.5649960805454</v>
+        <v>558.6775534918429</v>
       </c>
       <c r="D29" t="n">
+        <v>558.6775534918429</v>
+      </c>
+      <c r="E29" t="n">
+        <v>558.6775534918429</v>
+      </c>
+      <c r="F29" t="n">
         <v>442.2992974737949</v>
-      </c>
-      <c r="E29" t="n">
-        <v>442.2992974737949</v>
-      </c>
-      <c r="F29" t="n">
-        <v>32.45932575975218</v>
       </c>
       <c r="G29" t="n">
         <v>32.45932575975218</v>
@@ -6487,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1311.402045381201</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T29" t="n">
-        <v>1311.402045381201</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U29" t="n">
-        <v>1153.333651350659</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="V29" t="n">
-        <v>1153.333651350659</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="W29" t="n">
-        <v>800.5649960805454</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="X29" t="n">
-        <v>800.5649960805454</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="Y29" t="n">
-        <v>800.5649960805454</v>
+        <v>558.6775534918429</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>178.9938837328672</v>
+        <v>765.171579091324</v>
       </c>
       <c r="C30" t="n">
-        <v>178.9938837328672</v>
+        <v>590.718549810197</v>
       </c>
       <c r="D30" t="n">
-        <v>178.9938837328672</v>
+        <v>441.7841401489458</v>
       </c>
       <c r="E30" t="n">
-        <v>178.9938837328672</v>
+        <v>282.5466851434903</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H30" t="n">
         <v>32.45932575975218</v>
@@ -6542,22 +6542,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="K30" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L30" t="n">
-        <v>256.6067387278473</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M30" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609043</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P30" t="n">
         <v>1622.966287987609</v>
@@ -6569,25 +6569,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1513.100824020327</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T30" t="n">
-        <v>1312.19781512582</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U30" t="n">
-        <v>1083.995147663298</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V30" t="n">
-        <v>848.8430394315556</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="W30" t="n">
-        <v>594.605682703354</v>
+        <v>765.171579091324</v>
       </c>
       <c r="X30" t="n">
-        <v>386.7541824978211</v>
+        <v>765.171579091324</v>
       </c>
       <c r="Y30" t="n">
-        <v>178.9938837328672</v>
+        <v>765.171579091324</v>
       </c>
     </row>
     <row r="31">
@@ -6651,13 +6651,13 @@
         <v>361.24660160295</v>
       </c>
       <c r="T31" t="n">
-        <v>321.8764957967128</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U31" t="n">
-        <v>321.8764957967128</v>
+        <v>361.24660160295</v>
       </c>
       <c r="V31" t="n">
-        <v>321.8764957967128</v>
+        <v>106.5621133970631</v>
       </c>
       <c r="W31" t="n">
         <v>32.45932575975218</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1232.826956011797</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="C32" t="n">
-        <v>1232.826956011797</v>
+        <v>779.107697186644</v>
       </c>
       <c r="D32" t="n">
-        <v>1232.826956011797</v>
+        <v>779.107697186644</v>
       </c>
       <c r="E32" t="n">
-        <v>847.0387034135531</v>
+        <v>779.107697186644</v>
       </c>
       <c r="F32" t="n">
-        <v>437.1987316995103</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H32" t="n">
         <v>32.45932575975218</v>
@@ -6724,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="X32" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="Y32" t="n">
-        <v>1232.826956011797</v>
+        <v>834.8212426942227</v>
       </c>
     </row>
     <row r="33">
@@ -6806,13 +6806,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1541.019295328339</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1340.116286433832</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U33" t="n">
-        <v>1111.91361897131</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V33" t="n">
         <v>876.7615107395675</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>361.24660160295</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="C34" t="n">
-        <v>361.24660160295</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="D34" t="n">
-        <v>361.24660160295</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="E34" t="n">
-        <v>213.3335080205569</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="F34" t="n">
-        <v>213.3335080205569</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="G34" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
         <v>32.45932575975218</v>
@@ -6891,19 +6891,19 @@
         <v>361.24660160295</v>
       </c>
       <c r="U34" t="n">
-        <v>361.24660160295</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="V34" t="n">
-        <v>361.24660160295</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="W34" t="n">
-        <v>361.24660160295</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="X34" t="n">
-        <v>361.24660160295</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="Y34" t="n">
-        <v>361.24660160295</v>
+        <v>72.05002336285355</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="C35" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D35" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E35" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F35" t="n">
         <v>32.45932575975218</v>
@@ -6937,10 +6937,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L35" t="n">
         <v>519.4894913528324</v>
@@ -6964,25 +6964,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.966287987609</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="V35" t="n">
-        <v>1622.966287987609</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="W35" t="n">
-        <v>1588.153148397241</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="X35" t="n">
-        <v>1214.687390136161</v>
+        <v>1194.98675039793</v>
       </c>
       <c r="Y35" t="n">
-        <v>1214.687390136161</v>
+        <v>804.8474184221182</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>340.6311904264589</v>
+        <v>271.0321573380744</v>
       </c>
       <c r="C36" t="n">
-        <v>340.6311904264589</v>
+        <v>271.0321573380744</v>
       </c>
       <c r="D36" t="n">
-        <v>191.6967807652077</v>
+        <v>271.0321573380744</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="K36" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L36" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>729.6092173456783</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N36" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O36" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T36" t="n">
-        <v>1226.438659868993</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U36" t="n">
-        <v>998.2359924064713</v>
+        <v>1227.261385483253</v>
       </c>
       <c r="V36" t="n">
-        <v>763.0838841747286</v>
+        <v>992.1092772515105</v>
       </c>
       <c r="W36" t="n">
-        <v>508.846527446527</v>
+        <v>737.871920523309</v>
       </c>
       <c r="X36" t="n">
-        <v>508.846527446527</v>
+        <v>530.0204203177761</v>
       </c>
       <c r="Y36" t="n">
-        <v>508.846527446527</v>
+        <v>322.2601215528222</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598941</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598941</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598941</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598941</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598941</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598941</v>
       </c>
       <c r="H37" t="n">
         <v>32.45932575975218</v>
@@ -7128,19 +7128,19 @@
         <v>361.24660160295</v>
       </c>
       <c r="U37" t="n">
-        <v>321.8764957967128</v>
+        <v>361.24660160295</v>
       </c>
       <c r="V37" t="n">
-        <v>321.8764957967128</v>
+        <v>361.24660160295</v>
       </c>
       <c r="W37" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598941</v>
       </c>
       <c r="X37" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598941</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598941</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>859.3611977507176</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="C38" t="n">
-        <v>828.0875500720392</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="D38" t="n">
-        <v>828.0875500720392</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="E38" t="n">
-        <v>442.2992974737949</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975218</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7201,25 +7201,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.966287987609</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="V38" t="n">
-        <v>1622.966287987609</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="W38" t="n">
-        <v>1622.966287987609</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="X38" t="n">
-        <v>1249.500529726529</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="Y38" t="n">
-        <v>859.3611977507176</v>
+        <v>631.9553272824514</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>288.8593477001497</v>
+        <v>301.9903387577444</v>
       </c>
       <c r="C39" t="n">
-        <v>191.6967807652077</v>
+        <v>301.9903387577444</v>
       </c>
       <c r="D39" t="n">
-        <v>191.6967807652077</v>
+        <v>301.9903387577444</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H39" t="n">
         <v>32.45932575975218</v>
@@ -7253,52 +7253,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L39" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>546.7891136313474</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1550.07525933707</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.966287987609</v>
+        <v>1550.07525933707</v>
       </c>
       <c r="T39" t="n">
-        <v>1422.063279093102</v>
+        <v>1349.172250442564</v>
       </c>
       <c r="U39" t="n">
-        <v>1193.860611630581</v>
+        <v>1120.969582980042</v>
       </c>
       <c r="V39" t="n">
-        <v>958.708503398838</v>
+        <v>885.8174747482992</v>
       </c>
       <c r="W39" t="n">
-        <v>704.4711466706365</v>
+        <v>885.8174747482992</v>
       </c>
       <c r="X39" t="n">
-        <v>496.6196464651036</v>
+        <v>677.9659745427664</v>
       </c>
       <c r="Y39" t="n">
-        <v>288.8593477001497</v>
+        <v>470.2056757778125</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>133.2570507049327</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="C40" t="n">
-        <v>133.2570507049327</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="D40" t="n">
-        <v>133.2570507049327</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="E40" t="n">
-        <v>133.2570507049327</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="F40" t="n">
-        <v>133.2570507049327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G40" t="n">
         <v>32.45932575975218</v>
@@ -7365,19 +7365,19 @@
         <v>361.24660160295</v>
       </c>
       <c r="U40" t="n">
-        <v>361.24660160295</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="V40" t="n">
-        <v>361.24660160295</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="W40" t="n">
-        <v>361.24660160295</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="X40" t="n">
-        <v>133.2570507049327</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.2570507049327</v>
+        <v>327.2623668400556</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>852.1392691878377</v>
+        <v>1096.495941019763</v>
       </c>
       <c r="C41" t="n">
-        <v>852.1392691878377</v>
+        <v>727.5334240793518</v>
       </c>
       <c r="D41" t="n">
-        <v>852.1392691878377</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E41" t="n">
-        <v>852.1392691878377</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F41" t="n">
-        <v>442.2992974737949</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G41" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H41" t="n">
         <v>32.45932575975218</v>
@@ -7411,16 +7411,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011316</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7450,13 +7450,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>1622.966287987609</v>
+        <v>1469.961699280843</v>
       </c>
       <c r="X41" t="n">
-        <v>1249.500529726529</v>
+        <v>1096.495941019763</v>
       </c>
       <c r="Y41" t="n">
-        <v>1238.739109251959</v>
+        <v>1096.495941019763</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>661.618777680701</v>
+        <v>489.7623565946564</v>
       </c>
       <c r="C42" t="n">
-        <v>487.165748399574</v>
+        <v>315.3093273135294</v>
       </c>
       <c r="D42" t="n">
-        <v>338.2313387383227</v>
+        <v>166.3749176522781</v>
       </c>
       <c r="E42" t="n">
-        <v>178.9938837328672</v>
+        <v>166.3749176522781</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H42" t="n">
         <v>32.45932575975218</v>
@@ -7490,52 +7490,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K42" t="n">
-        <v>236.9655055809357</v>
+        <v>201.1187329501917</v>
       </c>
       <c r="L42" t="n">
-        <v>534.6972605625989</v>
+        <v>498.8504879318549</v>
       </c>
       <c r="M42" t="n">
-        <v>934.1153971668618</v>
+        <v>898.2686245361178</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1587.0624103087</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1587.0624103087</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1587.0624103087</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U42" t="n">
-        <v>1358.859742846178</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V42" t="n">
-        <v>1123.707634614435</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W42" t="n">
-        <v>869.4702778862338</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="X42" t="n">
-        <v>661.618777680701</v>
+        <v>697.5226553596103</v>
       </c>
       <c r="Y42" t="n">
-        <v>661.618777680701</v>
+        <v>489.7623565946564</v>
       </c>
     </row>
     <row r="43">
@@ -7578,34 +7578,34 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N43" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P43" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q43" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R43" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="T43" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U43" t="n">
-        <v>321.8764957967128</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V43" t="n">
-        <v>321.8764957967128</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W43" t="n">
         <v>32.45932575975218</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>727.5334240793518</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C44" t="n">
-        <v>727.5334240793518</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D44" t="n">
-        <v>369.2677254726013</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E44" t="n">
-        <v>369.2677254726013</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F44" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G44" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H44" t="n">
         <v>32.45932575975218</v>
@@ -7648,16 +7648,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7678,22 +7678,22 @@
         <v>1508.970645214177</v>
       </c>
       <c r="T44" t="n">
-        <v>1312.433194490668</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U44" t="n">
-        <v>1058.596311422923</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="V44" t="n">
-        <v>727.5334240793518</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="W44" t="n">
-        <v>727.5334240793518</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="X44" t="n">
-        <v>727.5334240793518</v>
+        <v>1218.226882047851</v>
       </c>
       <c r="Y44" t="n">
-        <v>727.5334240793518</v>
+        <v>828.0875500720392</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>366.1498100463347</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C45" t="n">
-        <v>191.6967807652077</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D45" t="n">
-        <v>191.6967807652077</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E45" t="n">
         <v>32.45932575975218</v>
@@ -7730,19 +7730,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K45" t="n">
-        <v>201.1187329501917</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L45" t="n">
-        <v>498.8504879318549</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M45" t="n">
-        <v>898.2686245361178</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N45" t="n">
-        <v>1299.952780813051</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O45" t="n">
-        <v>1622.966287987609</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P45" t="n">
         <v>1622.966287987609</v>
@@ -7751,28 +7751,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S45" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T45" t="n">
-        <v>1455.464052945775</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U45" t="n">
-        <v>1271.151073976766</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V45" t="n">
-        <v>1035.998965745023</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W45" t="n">
-        <v>781.7616090168215</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X45" t="n">
-        <v>573.9101088112886</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y45" t="n">
-        <v>366.1498100463347</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="46">
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,7 +8546,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>117.917222536309</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>74.46639351210651</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>455.0874215304797</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9014,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>184.8055467452003</v>
       </c>
       <c r="N15" t="n">
-        <v>418.8785602873039</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275541</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>391.3774455544766</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>455.0874215304797</v>
@@ -9260,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q18" t="n">
         <v>99.73813450275543</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>63.84875129258624</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>146.9565108232705</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>308.5394070542101</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>73.77211287831325</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,7 +9956,7 @@
         <v>97.05174705344739</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>203.2271928126415</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q27" t="n">
         <v>99.73813450275543</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344739</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026377</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>296.5127271079359</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10205,10 +10205,10 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>357.6534580335538</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q30" t="n">
         <v>99.73813450275543</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344739</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026377</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258627</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>74.46639351210652</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>455.0874215304797</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>257.2956640563643</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>63.84875129258624</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627455</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11378,7 +11378,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>257.2956640563643</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11393,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>73.77211287831324</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q45" t="n">
         <v>99.73813450275543</v>
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>8.97193213363164</v>
       </c>
       <c r="H11" t="n">
-        <v>94.77910407248135</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>66.84671608601991</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>123.5412020837574</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>53.57431239122755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>128.7502647990355</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>108.5255533099059</v>
       </c>
       <c r="J13" t="n">
         <v>74.67247646141476</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
         <v>187.7594695105699</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>103.2395587924447</v>
+        <v>129.076540314242</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23591,7 +23591,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>21.88778434148493</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
         <v>78.54202280713804</v>
@@ -23624,7 +23624,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>84.69968995873791</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>131.764668721592</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.7266695472104</v>
@@ -23700,7 +23700,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
         <v>219.4103988718534</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>140.8555754337624</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,10 +23734,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23749,10 +23749,10 @@
         <v>8.97193213363164</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>164.5037844603371</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>315.3272845698724</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23813,22 +23813,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>93.25395688315949</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -23861,19 +23861,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>70.05380818226953</v>
       </c>
       <c r="T18" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>72.05928826199333</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.7266695472104</v>
@@ -23946,13 +23946,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095206</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>208.2302164284756</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>95.58366736817462</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>155.0262523305311</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24107,16 +24107,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>164.0266551208489</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24180,16 +24180,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>153.4545059283735</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>213.1612385756531</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.97193213363164</v>
+        <v>356.4715637161361</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456975</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>302.1718802445453</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>87.72311791148543</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -24338,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>18.4322864591802</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24420,10 +24420,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095207</v>
       </c>
       <c r="V25" t="n">
-        <v>213.1612385756532</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>12.63730259382893</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.2730687230234</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,13 +24524,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24539,7 +24539,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -24578,13 +24578,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>74.57697624215382</v>
+        <v>84.69968995873808</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
-        <v>148.5384471128089</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I28" t="n">
         <v>147.5019580580808</v>
@@ -24657,13 +24657,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095207</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,16 +24685,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>1.134473744809156</v>
+        <v>291.661572283844</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>94.8108041468324</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24761,22 +24761,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>6.673349016094534</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>78.54202280713804</v>
@@ -24809,13 +24809,13 @@
         <v>80.58358449827553</v>
       </c>
       <c r="S30" t="n">
-        <v>57.06040336380609</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24891,16 +24891,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>187.8398609411364</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>213.1612385756532</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,22 +24919,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>310.1164817185046</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>14.02149225017337</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25046,7 +25046,7 @@
         <v>80.58358449827553</v>
       </c>
       <c r="S33" t="n">
-        <v>84.69968995873791</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>84.69968995873802</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>136.1631871670945</v>
+        <v>128.5318789201401</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J34" t="n">
         <v>74.67247646141476</v>
@@ -25131,7 +25131,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.7135041305339</v>
@@ -25204,7 +25204,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>141.6242722993331</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>314.7759605229484</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>115.817499077267</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>52.74242415782314</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25329,7 +25329,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>159.8772180037952</v>
+        <v>120.9008132556204</v>
       </c>
       <c r="I37" t="n">
         <v>147.5019580580808</v>
@@ -25368,7 +25368,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>247.3282077095207</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>334.311980569116</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>14.05931586678378</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>76.51755772272311</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25487,7 +25487,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827553</v>
+        <v>8.421466134242095</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>67.93692185148171</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
@@ -25605,7 +25605,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>252.66022004243</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>187.7594695105699</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>197.7664258977148</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>375.5841323862294</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25715,16 +25715,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>121.6833988323946</v>
       </c>
       <c r="G42" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.03874559615527</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
-        <v>165.4090611368575</v>
+        <v>126.2142705097872</v>
       </c>
       <c r="S43" t="n">
         <v>219.4103988718534</v>
@@ -25842,13 +25842,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>247.3282077095206</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,19 +25870,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G44" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
         <v>187.7594695105699</v>
@@ -25918,22 +25918,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>25.94440420676617</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>333.1932893808745</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25952,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.2832744570135</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>43.45079160857745</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>527660.1728943418</v>
+        <v>527660.1728943416</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>527660.1728943415</v>
+        <v>527660.1728943413</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>527660.1728943413</v>
+        <v>527660.1728943414</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>527660.1728943412</v>
+        <v>527660.1728943414</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>527660.1728943418</v>
+        <v>527660.1728943414</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>527660.1728943418</v>
+        <v>527660.1728943415</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>527660.1728943414</v>
+        <v>527660.1728943415</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>527660.1728943415</v>
+        <v>527660.1728943418</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>527660.1728943414</v>
+        <v>527660.1728943415</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719631</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
@@ -26328,25 +26328,25 @@
         <v>245673.2316242976</v>
       </c>
       <c r="G2" t="n">
-        <v>245673.2316242976</v>
+        <v>245673.2316242975</v>
       </c>
       <c r="H2" t="n">
         <v>245673.2316242975</v>
       </c>
       <c r="I2" t="n">
-        <v>245673.2316242976</v>
+        <v>245673.2316242975</v>
       </c>
       <c r="J2" t="n">
         <v>245673.2316242975</v>
       </c>
       <c r="K2" t="n">
+        <v>245673.2316242976</v>
+      </c>
+      <c r="L2" t="n">
+        <v>245673.2316242976</v>
+      </c>
+      <c r="M2" t="n">
         <v>245673.2316242975</v>
-      </c>
-      <c r="L2" t="n">
-        <v>245673.2316242975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>245673.2316242976</v>
       </c>
       <c r="N2" t="n">
         <v>245673.2316242975</v>
@@ -26355,7 +26355,7 @@
         <v>245673.2316242976</v>
       </c>
       <c r="P2" t="n">
-        <v>245673.2316242975</v>
+        <v>245673.2316242976</v>
       </c>
     </row>
     <row r="3">
@@ -26481,7 +26481,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375756</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38820.521529575</v>
+        <v>38820.52152957483</v>
       </c>
       <c r="C6" t="n">
-        <v>119589.9530611226</v>
+        <v>119589.9530611227</v>
       </c>
       <c r="D6" t="n">
-        <v>119589.9530611226</v>
+        <v>119589.9530611225</v>
       </c>
       <c r="E6" t="n">
-        <v>15085.88569635186</v>
+        <v>23946.02515039094</v>
       </c>
       <c r="F6" t="n">
-        <v>182026.0558215986</v>
+        <v>190886.1952756377</v>
       </c>
       <c r="G6" t="n">
-        <v>182026.0558215986</v>
+        <v>190886.1952756376</v>
       </c>
       <c r="H6" t="n">
-        <v>182026.0558215985</v>
+        <v>190886.1952756377</v>
       </c>
       <c r="I6" t="n">
-        <v>182026.0558215987</v>
+        <v>190886.1952756377</v>
       </c>
       <c r="J6" t="n">
-        <v>118966.1132224923</v>
+        <v>127826.2526765314</v>
       </c>
       <c r="K6" t="n">
-        <v>182026.0558215985</v>
+        <v>190886.1952756377</v>
       </c>
       <c r="L6" t="n">
-        <v>182026.0558215986</v>
+        <v>190886.1952756377</v>
       </c>
       <c r="M6" t="n">
-        <v>140975.3579591507</v>
+        <v>149835.4974131897</v>
       </c>
       <c r="N6" t="n">
-        <v>182026.0558215986</v>
+        <v>190886.1952756376</v>
       </c>
       <c r="O6" t="n">
-        <v>182026.0558215986</v>
+        <v>190886.1952756377</v>
       </c>
       <c r="P6" t="n">
-        <v>182026.0558215986</v>
+        <v>190886.1952756377</v>
       </c>
     </row>
   </sheetData>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>273.8529271457276</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>150.5359555927217</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,22 +27457,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>136.4308634328779</v>
       </c>
       <c r="Y3" t="n">
-        <v>114.6890874020224</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27554,16 +27554,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>54.03113748306089</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>356.7568284542617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>392.3966171480263</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27706,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>135.8238544426224</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27718,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27748,22 +27748,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>29.41897557874998</v>
       </c>
     </row>
     <row r="7">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>54.03113748306089</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>314.9811766033053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>303.8671480099096</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,7 +27934,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27946,10 +27946,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3410493332382</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>68.91005459430082</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>110.3886183277161</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32171,7 +32171,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32180,16 +32180,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I20" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L20" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438473</v>
@@ -32487,25 +32487,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R20" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T20" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,7 +32545,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427703</v>
@@ -32554,22 +32554,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q21" t="n">
         <v>40.24363958326609</v>
@@ -32578,7 +32578,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32621,34 +32621,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K22" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q22" t="n">
         <v>22.13234246735009</v>
@@ -32657,7 +32657,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011532</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046561</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I23" t="n">
         <v>22.71642005983598</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629217</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645899</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044656</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438473</v>
@@ -32724,25 +32724,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971763</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737664</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134782</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545222</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S23" t="n">
         <v>13.42715575159879</v>
       </c>
       <c r="T23" t="n">
-        <v>2.579369141091549</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809224</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3152676547891927</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H24" t="n">
         <v>3.044821823885099</v>
@@ -32788,40 +32788,40 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J24" t="n">
-        <v>29.7858796132193</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409521</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253942</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864763</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975587</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100586</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601699</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.24363958326608</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R24" t="n">
         <v>19.57424965436761</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422063</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T24" t="n">
-        <v>1.270749889259947</v>
+        <v>1.270749889259948</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02074129307823637</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32870,16 +32870,16 @@
         <v>18.68670365525801</v>
       </c>
       <c r="K25" t="n">
-        <v>30.70799443412593</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323127</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141107</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039454</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O25" t="n">
         <v>37.35899041172068</v>
@@ -32888,16 +32888,16 @@
         <v>31.96707026225441</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.13234246735008</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R25" t="n">
         <v>11.88433024031196</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118888</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T25" t="n">
-        <v>1.129323738970202</v>
+        <v>1.129323738970203</v>
       </c>
       <c r="U25" t="n">
         <v>0.01441689879536431</v>
@@ -34122,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H41" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I41" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J41" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K41" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L41" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M41" t="n">
         <v>103.4642265438473</v>
@@ -34146,25 +34146,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O41" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P41" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R41" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S41" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T41" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,7 +34204,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H42" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I42" t="n">
         <v>10.85461004427703</v>
@@ -34213,22 +34213,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K42" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L42" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M42" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N42" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O42" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P42" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q42" t="n">
         <v>40.24363958326609</v>
@@ -34237,7 +34237,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S42" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T42" t="n">
         <v>1.270749889259948</v>
@@ -34280,34 +34280,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H43" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I43" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J43" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K43" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L43" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M43" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N43" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O43" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P43" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q43" t="n">
         <v>22.13234246735009</v>
@@ -34316,7 +34316,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S43" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T43" t="n">
         <v>1.129323738970203</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,7 +35266,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223148</v>
+        <v>30.98459604604529</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>12.21399299873585</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
@@ -35506,7 +35506,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>110.3391532330937</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366293</v>
+        <v>122.5531462318296</v>
       </c>
       <c r="N15" t="n">
-        <v>369.5327107537265</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>329.1250450411059</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
@@ -35980,7 +35980,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726432</v>
@@ -36132,7 +36132,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N20" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O20" t="n">
         <v>249.9811662707763</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
@@ -36211,7 +36211,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>14.50290175900885</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36220,7 +36220,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,16 +36281,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M22" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O22" t="n">
         <v>61.94411832576036</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167965</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726432</v>
@@ -36375,10 +36375,10 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P23" t="n">
-        <v>175.2982096635897</v>
+        <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680302</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>177.5326105223148</v>
+        <v>60.02388433300675</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
@@ -36448,7 +36448,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>259.1935575206327</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243077</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L25" t="n">
         <v>66.88568574354741</v>
       </c>
       <c r="M25" t="n">
-        <v>81.01564128325165</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N25" t="n">
         <v>84.57878194962314</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576035</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P25" t="n">
-        <v>29.24562952714789</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
@@ -36685,13 +36685,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>153.8813432790641</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L30" t="n">
-        <v>226.4115282506012</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366292</v>
@@ -36925,10 +36925,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
-        <v>326.276269873291</v>
+        <v>290.0674086301152</v>
       </c>
       <c r="P30" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
@@ -37396,16 +37396,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
-        <v>12.21399299873585</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
         <v>405.7415719969023</v>
@@ -37639,10 +37639,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726432</v>
@@ -37791,7 +37791,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N41" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O41" t="n">
         <v>249.9811662707763</v>
@@ -37800,7 +37800,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>177.5326105223148</v>
+        <v>170.3630375661006</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
@@ -37870,16 +37870,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,16 +37940,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L43" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M43" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N43" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O43" t="n">
         <v>61.94411832576036</v>
@@ -38031,7 +38031,7 @@
         <v>313.0722467132387</v>
       </c>
       <c r="O44" t="n">
-        <v>249.9811662707764</v>
+        <v>249.9811662707763</v>
       </c>
       <c r="P44" t="n">
         <v>175.2982096635898</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>170.3630375661006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
@@ -38113,7 +38113,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
